--- a/Многомерный анализ и прогнозирование/python/Train sample.xlsx
+++ b/Многомерный анализ и прогнозирование/python/Train sample.xlsx
@@ -505,43 +505,41 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3588599530000001</v>
+        <v>0.423720628</v>
       </c>
       <c r="C2" t="n">
-        <v>1.04666222</v>
+        <v>0.4397263630000001</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0241346401</v>
+        <v>-0.6469541240000001</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.925108991</v>
+        <v>1.67652093</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1089212</v>
+        <v>0.920457719</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4195132750000001</v>
+        <v>-0.8322565989999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0433836163</v>
+        <v>0.9227996970000002</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.222081546</v>
+        <v>-0.6263530970000001</v>
       </c>
       <c r="J2" t="n">
         <v>0.08913697090000001</v>
       </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -549,43 +547,41 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7325416650000001</v>
+        <v>1.93273251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.152725688</v>
+        <v>1.68731673</v>
       </c>
       <c r="D3" t="n">
-        <v>1.49399036</v>
+        <v>0.7225112960000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.505787463</v>
+        <v>0.05050222780000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.675489109</v>
+        <v>1.19273137</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.282278512</v>
+        <v>0.517564476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.282663934</v>
+        <v>0.9667861529999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2691680830000001</v>
+        <v>0.206283635</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6479994320000003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
+        <v>-0.3680742160000001</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -593,37 +589,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.21331987</v>
+        <v>-0.6676809900000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4318848140000001</v>
+        <v>0.589499939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6578848750000001</v>
+        <v>1.64087962</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0795792681</v>
+        <v>-0.6649460000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.394043311</v>
+        <v>0.235605284</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.191349951</v>
+        <v>0.155036569</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.07276540620000002</v>
+        <v>0.6520546550000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.280704824</v>
+        <v>0.09523279030000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0144902465</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
+        <v>-0.498705984</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -637,31 +631,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.404481243</v>
+        <v>0.0973529417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220163005</v>
+        <v>-0.50361192</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.531442457</v>
+        <v>-0.6661084600000001</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0145385201</v>
+        <v>-0.274701512</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5722087170000001</v>
+        <v>-0.7076118650000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.460731175</v>
+        <v>-0.359749214</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.22803194</v>
+        <v>-0.3755882010000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5750471180000001</v>
+        <v>-0.5760255390000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5743406790000001</v>
+        <v>0.5650098390000001</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -681,43 +675,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.014945617</v>
+        <v>-0.923862077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9345280720000001</v>
+        <v>-0.5232157909999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.457703866</v>
+        <v>-0.730266322</v>
       </c>
       <c r="E6" t="n">
-        <v>0.115542976</v>
+        <v>-0.534864504</v>
       </c>
       <c r="F6" t="n">
-        <v>1.48050069</v>
+        <v>1.82597743</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3560039930000001</v>
+        <v>-0.222913948</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.121853329</v>
+        <v>-0.8426810780000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3376575910000001</v>
+        <v>-0.03917786910000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.210437898</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
+        <v>0.723634128</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -725,31 +717,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.169356135</v>
+        <v>-1.58712544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07117358420000001</v>
+        <v>0.7549566120000002</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5186818390000001</v>
+        <v>-0.260296206</v>
       </c>
       <c r="E7" t="n">
-        <v>0.115542976</v>
+        <v>1.48139868</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7572203430000001</v>
+        <v>0.0467290907</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.249657056</v>
+        <v>-0.4034747370000001</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6854950770000001</v>
+        <v>-0.111932843</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2195131900000001</v>
+        <v>-0.2840278600000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7889500120000001</v>
+        <v>-0.358743375</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -758,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -769,35 +761,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.964157442</v>
+        <v>1.31859977</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09898801789999999</v>
+        <v>0.889047091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8073000260000001</v>
+        <v>0.6209496500000002</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.274701512</v>
+        <v>1.15619494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3834834990000001</v>
+        <v>0.402297276</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3162428750000001</v>
+        <v>-0.406735079</v>
       </c>
       <c r="H8" t="n">
-        <v>0.174423407</v>
+        <v>-0.3320858630000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4704171640000001</v>
+        <v>-0.47475891</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5826835489999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
+        <v>-0.480044302</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>5</v>
       </c>
@@ -813,31 +803,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.004417627129999999</v>
+        <v>-0.2044494350000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0527228819</v>
+        <v>-0.350701724</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.157174998</v>
+        <v>-0.881749161</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5708282110000001</v>
+        <v>-0.144620016</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3017196700000001</v>
+        <v>-0.454377047</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5253904170000001</v>
+        <v>-0.492329036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.257489622</v>
+        <v>-0.288642136</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.009947525490000003</v>
+        <v>-0.524413803</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0321639562</v>
+        <v>-0.0041714346</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -857,31 +847,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.472851248</v>
+        <v>0.7325416650000001</v>
       </c>
       <c r="C10" t="n">
-        <v>1.46853752</v>
+        <v>0.152725688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.346791263</v>
+        <v>1.49399036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.245624472</v>
+        <v>0.505787463</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2089464070000001</v>
+        <v>-0.675489109</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.280892029</v>
+        <v>-0.282278512</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03506530659999999</v>
+        <v>0.282663934</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4232083250000001</v>
+        <v>-0.2691680830000001</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4333901000000001</v>
+        <v>-0.6479994320000003</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -890,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -901,31 +891,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23772614</v>
+        <v>0.507944547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.279758774</v>
+        <v>-0.411081647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3769497150000001</v>
+        <v>-0.495335782</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.144620016</v>
+        <v>0.3757059680000001</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0584214574</v>
+        <v>1.1937933</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3885197310000001</v>
+        <v>-0.3865566730000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05867699890000001</v>
+        <v>-0.724501974</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.463079002</v>
+        <v>-0.07048735839999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.173114536</v>
+        <v>1.36746213</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -945,43 +935,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3518412930000001</v>
+        <v>-1.26777641</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8807904020000001</v>
+        <v>-1.95900332</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.02327146</v>
+        <v>-0.544431338</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.05519049</v>
+        <v>0.180583724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0443690056</v>
+        <v>-0.320247841</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.490077504</v>
+        <v>0.7318826700000001</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.0056886</v>
+        <v>-1.47309134</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08265647640000001</v>
+        <v>3.21523564</v>
       </c>
       <c r="J12" t="n">
-        <v>0.481032274</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
+        <v>3.62552554</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -989,43 +977,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.29052513</v>
+        <v>1.24490384</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.309141517</v>
+        <v>1.03568405</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8703089820000001</v>
+        <v>0.9570909550000001</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.209660764</v>
+        <v>2.52205065</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.357397804</v>
+        <v>0.9084156809999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.321621748</v>
+        <v>0.4348124460000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.808907204</v>
+        <v>0.81689224</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5872773869999999</v>
+        <v>-0.364197275</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.106810681</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
+        <v>-0.9465863299999999</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1033,43 +1019,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5676031560000001</v>
+        <v>-0.0570575765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.68516683</v>
+        <v>0.697713308</v>
       </c>
       <c r="D14" t="n">
-        <v>2.21051344</v>
+        <v>-0.231939684</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3757059680000001</v>
+        <v>0.9610726989999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000741496502</v>
+        <v>-0.5569656770000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2982262110000001</v>
+        <v>1.34589173</v>
       </c>
       <c r="H14" t="n">
-        <v>2.11088864</v>
+        <v>2.17376675</v>
       </c>
       <c r="I14" t="n">
-        <v>0.160664731</v>
+        <v>-0.392938408</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.5080368239999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
+        <v>-0.3867358970000001</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1077,31 +1061,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.229014745</v>
+        <v>0.23772614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.302499264</v>
+        <v>0.279758774</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4580519790000001</v>
+        <v>0.3769497150000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05050222780000001</v>
+        <v>-0.144620016</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.157032358</v>
+        <v>-0.0584214574</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3263533130000001</v>
+        <v>-0.3885197310000001</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5972393229999999</v>
+        <v>0.05867699890000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.391776533</v>
+        <v>-0.463079002</v>
       </c>
       <c r="J15" t="n">
-        <v>1.2461612</v>
+        <v>0.173114536</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1121,31 +1105,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0973529417</v>
+        <v>0.174558201</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.50361192</v>
+        <v>1.06469778</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6661084600000001</v>
+        <v>-0.0281619726</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.274701512</v>
+        <v>0.31066522</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7076118650000001</v>
+        <v>-0.6575204940000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.359749214</v>
+        <v>-0.6532557060000002</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3755882010000001</v>
+        <v>0.6493851460000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5760255390000001</v>
+        <v>-0.361200859</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5650098390000001</v>
+        <v>0.3690621870000001</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1165,31 +1149,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.24672043</v>
+        <v>-1.22917378</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5906531079999999</v>
+        <v>-1.95743501</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.00792375</v>
+        <v>-1.95363253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05050222780000001</v>
+        <v>0.505787463</v>
       </c>
       <c r="F17" t="n">
-        <v>0.352541501</v>
+        <v>-0.200988248</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4273262870000001</v>
+        <v>-0.543854591</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.03771789</v>
+        <v>-1.40245213</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07409528790000003</v>
+        <v>-0.6313063560000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7422958090000001</v>
+        <v>-0.5453601859999999</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -1198,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1209,31 +1193,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2044494350000001</v>
+        <v>-0.3834252630000001</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.350701724</v>
+        <v>-1.26973121</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.881749161</v>
+        <v>0.121041336</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.144620016</v>
+        <v>1.28627644</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.454377047</v>
+        <v>-0.356775949</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.492329036</v>
+        <v>-0.291236648</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.288642136</v>
+        <v>-0.6657122240000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.524413803</v>
+        <v>-0.259445019</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0041714346</v>
+        <v>-0.256104129</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1253,31 +1237,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2798381</v>
+        <v>0.27281944</v>
       </c>
       <c r="C19" t="n">
-        <v>0.152725688</v>
+        <v>0.275053845</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3038727140000001</v>
+        <v>0.278702708</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3397422600000001</v>
+        <v>0.440746716</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.391579232</v>
+        <v>-2.01708879</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4046767800000001</v>
+        <v>-0.267983437</v>
       </c>
       <c r="H19" t="n">
-        <v>0.468514332</v>
+        <v>-0.598811404</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.413057201</v>
+        <v>-0.07489025540000002</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05181360870000002</v>
+        <v>-0.480044302</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1297,35 +1281,35 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.441267278</v>
+        <v>1.07996533</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5314724799999999</v>
+        <v>0.5291200160000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13379998</v>
+        <v>1.50822214</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.729986748</v>
+        <v>-1.18527198</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.119915781</v>
+        <v>-0.146230006</v>
       </c>
       <c r="G20" t="n">
-        <v>0.263057386</v>
+        <v>2.0575036</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.112164004</v>
+        <v>0.686302075</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4803639700000001</v>
+        <v>1.50073534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6209948820000002</v>
+        <v>-0.834616243</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -1339,31 +1323,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.22917378</v>
+        <v>0.0903342818</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.95743501</v>
+        <v>-1.79119418</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.95363253</v>
+        <v>-1.70438705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.505787463</v>
+        <v>-0.8600682430000001</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.200988248</v>
+        <v>-0.905772724</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.543854591</v>
+        <v>-0.3222205440000001</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.40245213</v>
+        <v>-0.982051527</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6313063560000001</v>
+        <v>-0.964948102</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.5453601859999999</v>
+        <v>-0.078818159</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1427,33 +1411,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6676809900000001</v>
+        <v>1.29052513</v>
       </c>
       <c r="C23" t="n">
-        <v>0.589499939</v>
+        <v>-0.309141517</v>
       </c>
       <c r="D23" t="n">
-        <v>1.64087962</v>
+        <v>0.8703089820000001</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.6649460000000001</v>
+        <v>-0.209660764</v>
       </c>
       <c r="F23" t="n">
-        <v>0.235605284</v>
+        <v>-0.357397804</v>
       </c>
       <c r="G23" t="n">
-        <v>0.155036569</v>
+        <v>-0.321621748</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6520546550000001</v>
+        <v>0.808907204</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09523279030000001</v>
+        <v>-0.5872773869999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.498705984</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>-0.106810681</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
       <c r="L23" t="n">
         <v>5</v>
       </c>
@@ -1469,33 +1455,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.21316083</v>
+        <v>0.964157442</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5291200160000001</v>
+        <v>-0.09898801789999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1.4267796</v>
+        <v>0.8073000260000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9610726989999999</v>
+        <v>-0.274701512</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.927030608</v>
+        <v>0.3834834990000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.293967434</v>
+        <v>-0.3162428750000001</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.254685313</v>
+        <v>0.174423407</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9130097460000001</v>
+        <v>-0.4704171640000001</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.20784987</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>-0.5826835489999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
@@ -1511,31 +1499,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.5974943899999999</v>
+        <v>0.160520881</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0570587969</v>
+        <v>-0.47459819</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6073206940000001</v>
+        <v>-0.6508746460000002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.440746716</v>
+        <v>0.05050222780000001</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8530393500000001</v>
+        <v>-0.6251664720000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3390158960000001</v>
+        <v>-0.4203163190000001</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6270502780000001</v>
+        <v>-1.07668655</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0606419917</v>
+        <v>0.4258781200000001</v>
       </c>
       <c r="J25" t="n">
-        <v>1.10619859</v>
+        <v>-0.5640218670000001</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1555,31 +1543,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.246561394</v>
+        <v>-0.004417627129999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.238567581</v>
+        <v>-0.0527228819</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2514609210000001</v>
+        <v>-0.157174998</v>
       </c>
       <c r="E26" t="n">
-        <v>0.180583724</v>
+        <v>0.5708282110000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6368432310000002</v>
+        <v>-0.3017196700000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.27650776</v>
+        <v>-0.5253904170000001</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.289557295</v>
+        <v>0.257489622</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.816166877</v>
+        <v>-0.009947525490000003</v>
       </c>
       <c r="J26" t="n">
-        <v>0.826273374</v>
+        <v>-0.0321639562</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1599,31 +1587,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.007926957090000001</v>
+        <v>0.392136658</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3785622850000001</v>
+        <v>0.522062622</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.47726722</v>
+        <v>-0.6005885809999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.115542976</v>
+        <v>-1.38039423</v>
       </c>
       <c r="F27" t="n">
-        <v>1.33032801</v>
+        <v>1.7100498</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3732012670000001</v>
+        <v>-0.3269853680000001</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.601983965</v>
+        <v>1.31888168</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0690197261</v>
+        <v>-0.764738594</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.6666611130000002</v>
+        <v>-0.452051781</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
@@ -1643,31 +1631,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111390262</v>
+        <v>0.4553045980000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006872886610000001</v>
+        <v>0.3393545420000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.364295854</v>
+        <v>-0.5595149269999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.115542976</v>
+        <v>-1.18527198</v>
       </c>
       <c r="F28" t="n">
-        <v>0.566475363</v>
+        <v>-0.179424086</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4301887660000001</v>
+        <v>-0.3244996610000001</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2908440840000001</v>
+        <v>-0.2803738910000001</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.7991056510000001</v>
+        <v>-0.21633332</v>
       </c>
       <c r="J28" t="n">
-        <v>0.201107057</v>
+        <v>1.05021355</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1687,31 +1675,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.31859977</v>
+        <v>0.146483561</v>
       </c>
       <c r="C29" t="n">
-        <v>0.889047091</v>
+        <v>-0.0511545722</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6209496500000002</v>
+        <v>1.01140991</v>
       </c>
       <c r="E29" t="n">
-        <v>1.15619494</v>
+        <v>-1.05519049</v>
       </c>
       <c r="F29" t="n">
-        <v>0.402297276</v>
+        <v>-0.628487767</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.406735079</v>
+        <v>-0.277539357</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.3320858630000001</v>
+        <v>-0.7551792590000002</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.47475891</v>
+        <v>0.03634404369999999</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.480044302</v>
+        <v>-1.87967038</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
@@ -1729,31 +1717,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8588775430000001</v>
+        <v>-0.007926957090000001</v>
       </c>
       <c r="C30" t="n">
-        <v>1.58694491</v>
+        <v>0.3785622850000001</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.37651935</v>
+        <v>-0.47726722</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7950274960000001</v>
+        <v>0.115542976</v>
       </c>
       <c r="F30" t="n">
-        <v>1.50784078</v>
+        <v>1.33032801</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3949272810000001</v>
+        <v>-0.3732012670000001</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.104655083</v>
+        <v>-0.601983965</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.601586802</v>
+        <v>-0.0690197261</v>
       </c>
       <c r="J30" t="n">
-        <v>0.09846781139999999</v>
+        <v>-0.6666611130000002</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
@@ -1773,35 +1761,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2763287700000001</v>
+        <v>1.25894116</v>
       </c>
       <c r="C31" t="n">
-        <v>1.56498857</v>
+        <v>1.01451187</v>
       </c>
       <c r="D31" t="n">
-        <v>2.47296029</v>
+        <v>1.98714333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.245624472</v>
+        <v>-0.469823756</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4135138930000001</v>
+        <v>0.6639292960000003</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.117387142</v>
+        <v>2.0997129</v>
       </c>
       <c r="H31" t="n">
-        <v>1.41557826</v>
+        <v>0.576530947</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0660233102</v>
+        <v>2.73507526</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.27476581</v>
+        <v>-0.44272094</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -1815,43 +1803,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0903342818</v>
+        <v>-1.70644266</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.79119418</v>
+        <v>-0.6141777530000001</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.70438705</v>
+        <v>0.83591339</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8600682430000001</v>
+        <v>0.440746716</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.905772724</v>
+        <v>-1.96072288</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3222205440000001</v>
+        <v>-0.188240646</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.982051527</v>
+        <v>-1.15087862</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.964948102</v>
+        <v>1.07261476</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.078818159</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
+        <v>-1.375805</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1859,41 +1845,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.93273251</v>
+        <v>0.21316083</v>
       </c>
       <c r="C33" t="n">
-        <v>1.68731673</v>
+        <v>0.5291200160000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7225112960000001</v>
+        <v>1.4267796</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05050222780000001</v>
+        <v>0.9610726989999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1.19273137</v>
+        <v>-0.927030608</v>
       </c>
       <c r="G33" t="n">
-        <v>0.517564476</v>
+        <v>0.293967434</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9667861529999999</v>
+        <v>-0.254685313</v>
       </c>
       <c r="I33" t="n">
-        <v>0.206283635</v>
+        <v>0.9130097460000001</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.3680742160000001</v>
+        <v>-1.20784987</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1945,35 +1931,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.14845919</v>
+        <v>1.61338348</v>
       </c>
       <c r="C35" t="n">
-        <v>0.144099985</v>
+        <v>0.260939057</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0865493247</v>
+        <v>0.109495192</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.144620016</v>
+        <v>0.505787463</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.205644387</v>
+        <v>-0.3383594280000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2559698</v>
+        <v>-0.309071346</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00938893794</v>
+        <v>-0.3968644250000001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.245970859</v>
+        <v>0.07774350530000002</v>
       </c>
       <c r="J35" t="n">
-        <v>0.453039752</v>
+        <v>0.425047231</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -1987,35 +1973,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.392136658</v>
+        <v>0.9852134219999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.522062622</v>
+        <v>1.19173086</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.6005885809999999</v>
+        <v>0.574963093</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.38039423</v>
+        <v>-1.18527198</v>
       </c>
       <c r="F36" t="n">
-        <v>1.7100498</v>
+        <v>0.718910499</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.3269853680000001</v>
+        <v>-0.2600279070000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.31888168</v>
+        <v>0.282911554</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.764738594</v>
+        <v>-0.4295069130000001</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.452051781</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3</v>
-      </c>
+        <v>-0.7413078380000001</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>3</v>
       </c>
@@ -2031,31 +2015,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6026964560000002</v>
+        <v>-0.5974943899999999</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.132706676</v>
+        <v>0.0570587969</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.990801366</v>
+        <v>-0.6073206940000001</v>
       </c>
       <c r="E37" t="n">
         <v>0.440746716</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7429060430000001</v>
+        <v>-0.8530393500000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.491780111</v>
+        <v>-0.3390158960000001</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.4158200140000001</v>
+        <v>-0.6270502780000001</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.613022104</v>
+        <v>-0.0606419917</v>
       </c>
       <c r="J37" t="n">
-        <v>0.499693955</v>
+        <v>1.10619859</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
@@ -2073,35 +2057,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.06943734</v>
+        <v>0.6202431060000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.214673921</v>
+        <v>-0.16720949</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3136122780000001</v>
+        <v>-0.8216013560000002</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0145385201</v>
+        <v>-0.7950274960000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04718848429999999</v>
+        <v>0.575037445</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.34977747</v>
+        <v>-0.0558568362</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.6905832849999999</v>
+        <v>-0.3897628570000001</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.3520893090000001</v>
+        <v>-0.3840714630000001</v>
       </c>
       <c r="J38" t="n">
-        <v>0.257092101</v>
+        <v>1.51675557</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -2115,41 +2099,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.174558201</v>
+        <v>-0.815072848</v>
       </c>
       <c r="C39" t="n">
-        <v>1.06469778</v>
+        <v>0.276622154</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0281619726</v>
+        <v>-0.527596422</v>
       </c>
       <c r="E39" t="n">
-        <v>0.31066522</v>
+        <v>0.7009097070000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6575204940000001</v>
+        <v>0.5440781520000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.6532557060000002</v>
+        <v>-0.34632205</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6493851460000001</v>
+        <v>0.193112544</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.361200859</v>
+        <v>-0.595288213</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3690621870000001</v>
+        <v>-0.09747984009999999</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2157,41 +2141,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.815072848</v>
+        <v>-0.229014745</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276622154</v>
+        <v>0.302499264</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.527596422</v>
+        <v>-0.4580519790000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7009097070000001</v>
+        <v>0.05050222780000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5440781520000001</v>
+        <v>-0.157032358</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.34632205</v>
+        <v>-0.3263533130000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.193112544</v>
+        <v>-0.5972393229999999</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.595288213</v>
+        <v>-0.391776533</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.09747984009999999</v>
+        <v>1.2461612</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2199,33 +2183,35 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.560584497</v>
+        <v>0.8588775430000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9306072980000001</v>
+        <v>1.58694491</v>
       </c>
       <c r="D41" t="n">
-        <v>0.77085671</v>
+        <v>-0.37651935</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05050222780000001</v>
+        <v>-0.7950274960000001</v>
       </c>
       <c r="F41" t="n">
-        <v>1.92550019</v>
+        <v>1.50784078</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.275965286</v>
+        <v>-0.3949272810000001</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.2677531539999999</v>
+        <v>-0.104655083</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.350071314</v>
+        <v>-0.601586802</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.470713462</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>0.09846781139999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
@@ -2272,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2283,41 +2269,43 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.24490384</v>
+        <v>1.21331987</v>
       </c>
       <c r="C43" t="n">
-        <v>1.03568405</v>
+        <v>0.4318848140000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9570909550000001</v>
+        <v>0.6578848750000001</v>
       </c>
       <c r="E43" t="n">
-        <v>2.52205065</v>
+        <v>-0.0795792681</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9084156809999999</v>
+        <v>-0.394043311</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4348124460000001</v>
+        <v>-0.191349951</v>
       </c>
       <c r="H43" t="n">
-        <v>0.81689224</v>
+        <v>-0.07276540620000002</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.364197275</v>
+        <v>0.280704824</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.9465863299999999</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>0.0144902465</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2325,41 +2313,43 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.146483561</v>
+        <v>0.472851248</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0511545722</v>
+        <v>1.46853752</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01140991</v>
+        <v>0.346791263</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.05519049</v>
+        <v>0.245624472</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.628487767</v>
+        <v>-0.2089464070000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.277539357</v>
+        <v>-0.280892029</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.7551792590000002</v>
+        <v>-0.03506530659999999</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03634404369999999</v>
+        <v>-0.4232083250000001</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.87967038</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>-0.4333901000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
       <c r="L44" t="n">
         <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2367,31 +2357,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.75206395</v>
+        <v>-0.3518412930000001</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.78628668</v>
+        <v>-0.8807904020000001</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.83650328</v>
+        <v>-1.02327146</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.469823756</v>
+        <v>-1.05519049</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.37644737</v>
+        <v>0.0443690056</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.583393156</v>
+        <v>-0.490077504</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.6563222</v>
+        <v>-1.0056886</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.3664598750000001</v>
+        <v>-0.08265647640000001</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.629337751</v>
+        <v>0.481032274</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
@@ -2411,35 +2401,35 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0570575765</v>
+        <v>2.78900902</v>
       </c>
       <c r="C46" t="n">
-        <v>0.697713308</v>
+        <v>0.363663343</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.231939684</v>
+        <v>-0.117942434</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9610726989999999</v>
+        <v>0.896031951</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5569656770000001</v>
+        <v>-0.3699706760000001</v>
       </c>
       <c r="G46" t="n">
-        <v>1.34589173</v>
+        <v>0.140997861</v>
       </c>
       <c r="H46" t="n">
-        <v>2.17376675</v>
+        <v>3.06865594</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.392938408</v>
+        <v>-0.7616198760000001</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.3867358970000001</v>
+        <v>-1.02123305</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
@@ -2453,33 +2443,35 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9852134219999999</v>
+        <v>-0.3588599530000001</v>
       </c>
       <c r="C47" t="n">
-        <v>1.19173086</v>
+        <v>1.04666222</v>
       </c>
       <c r="D47" t="n">
-        <v>0.574963093</v>
+        <v>-0.0241346401</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.18527198</v>
+        <v>-0.925108991</v>
       </c>
       <c r="F47" t="n">
-        <v>0.718910499</v>
+        <v>1.1089212</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.2600279070000001</v>
+        <v>-0.4195132750000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0.282911554</v>
+        <v>0.0433836163</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.4295069130000001</v>
+        <v>-0.222081546</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.7413078380000001</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>0.08913697090000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
       <c r="L47" t="n">
         <v>3</v>
       </c>
@@ -2495,31 +2487,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3974625830000001</v>
+        <v>0.05173165220000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271917225</v>
+        <v>0.07744682290000002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.490879051</v>
+        <v>-0.09066815590000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3757059680000001</v>
+        <v>-0.469823756</v>
       </c>
       <c r="F48" t="n">
-        <v>1.76491278</v>
+        <v>-0.0895364164</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.4370084400000001</v>
+        <v>0.232711785</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.2619086270000001</v>
+        <v>1.40954267</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.7725659669999999</v>
+        <v>-0.4854603950000001</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6116640420000001</v>
+        <v>-0.284096651</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
@@ -2537,33 +2529,35 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.436065212</v>
+        <v>-1.75206395</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.35206747</v>
+        <v>-2.78628668</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.18468264</v>
+        <v>-1.83650328</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.90072021</v>
+        <v>-0.469823756</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.579063739</v>
+        <v>-1.37644737</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.509813052</v>
+        <v>-0.583393156</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.22655584</v>
+        <v>-1.6563222</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.6153458550000002</v>
+        <v>-0.3664598750000001</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.08814899949999998</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>-0.629337751</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
       <c r="L49" t="n">
         <v>4</v>
       </c>
@@ -2579,35 +2573,35 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.557075167</v>
+        <v>-1.84681586</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.18582664</v>
+        <v>-3.14386129</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.94006302</v>
+        <v>-2.10759278</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.3397422600000001</v>
+        <v>4.0830286</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0666368043</v>
+        <v>-1.873875</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.4506806970000001</v>
+        <v>-0.392435482</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.18187858</v>
+        <v>-1.60186409</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.6339970160000002</v>
+        <v>-1.10767534</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5650098390000001</v>
+        <v>-0.797292881</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -2621,31 +2615,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05173165220000001</v>
+        <v>1.85552725</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07744682290000002</v>
+        <v>-0.919998144</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.09066815590000001</v>
+        <v>-0.7600644209999999</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.469823756</v>
+        <v>-1.83567946</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0895364164</v>
+        <v>0.09649582400000001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.232711785</v>
+        <v>-0.408194646</v>
       </c>
       <c r="H51" t="n">
-        <v>1.40954267</v>
+        <v>0.135492437</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.4854603950000001</v>
+        <v>-0.913214063</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.284096651</v>
+        <v>0.92891262</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
@@ -2663,31 +2657,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.07996533</v>
+        <v>0.2763287700000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5291200160000001</v>
+        <v>1.56498857</v>
       </c>
       <c r="D52" t="n">
-        <v>1.50822214</v>
+        <v>2.47296029</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.18527198</v>
+        <v>0.245624472</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.146230006</v>
+        <v>0.4135138930000001</v>
       </c>
       <c r="G52" t="n">
-        <v>2.0575036</v>
+        <v>-0.117387142</v>
       </c>
       <c r="H52" t="n">
-        <v>0.686302075</v>
+        <v>1.41557826</v>
       </c>
       <c r="I52" t="n">
-        <v>1.50073534</v>
+        <v>-0.0660233102</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.834616243</v>
+        <v>-0.27476581</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
@@ -2705,33 +2699,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.127244176</v>
+        <v>0.5676031560000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6326284550000002</v>
+        <v>0.68516683</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2904884</v>
+        <v>2.21051344</v>
       </c>
       <c r="E53" t="n">
-        <v>1.80660242</v>
+        <v>0.3757059680000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07518027280000002</v>
+        <v>0.000741496502</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.990065046</v>
+        <v>0.2982262110000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1.2052367</v>
+        <v>2.11088864</v>
       </c>
       <c r="I53" t="n">
-        <v>1.68785846</v>
+        <v>0.160664731</v>
       </c>
       <c r="J53" t="n">
-        <v>-1.20784987</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>-0.5080368239999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
       <c r="L53" t="n">
         <v>5</v>
       </c>
@@ -2747,31 +2743,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3974625830000001</v>
+        <v>-0.562401091</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.7827710460000001</v>
+        <v>0.228004554</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3646725960000001</v>
+        <v>-0.2913796730000001</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5999052520000001</v>
+        <v>1.48139868</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.544819519</v>
+        <v>-1.03615096</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.202190013</v>
+        <v>-0.990065046</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3139975720000001</v>
+        <v>-0.8269687570000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.209524657</v>
+        <v>-0.6051335799999999</v>
       </c>
       <c r="J54" t="n">
-        <v>1.18084531</v>
+        <v>-0.5546910270000002</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
@@ -2789,31 +2785,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4553045980000001</v>
+        <v>0.111390262</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3393545420000001</v>
+        <v>0.006872886610000001</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.5595149269999999</v>
+        <v>0.364295854</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.18527198</v>
+        <v>0.115542976</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.179424086</v>
+        <v>0.566475363</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.3244996610000001</v>
+        <v>-0.4301887660000001</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.2803738910000001</v>
+        <v>-0.2908440840000001</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.21633332</v>
+        <v>-0.7991056510000001</v>
       </c>
       <c r="J55" t="n">
-        <v>1.05021355</v>
+        <v>0.201107057</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
@@ -2831,31 +2827,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.214977425</v>
+        <v>-0.246561394</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.118591889</v>
+        <v>-0.238567581</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8923623219999999</v>
+        <v>-0.2514609210000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.505787463</v>
+        <v>0.180583724</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.182449785</v>
+        <v>0.6368432310000002</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.351707674</v>
+        <v>-0.27650776</v>
       </c>
       <c r="H56" t="n">
-        <v>0.876332971</v>
+        <v>-0.289557295</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.5260648889999999</v>
+        <v>-0.816166877</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4623705930000001</v>
+        <v>0.826273374</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
@@ -2873,35 +2869,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160520881</v>
+        <v>-0.7519049090000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.47459819</v>
+        <v>-0.3499175690000001</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.6508746460000002</v>
+        <v>0.0912100652</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05050222780000001</v>
+        <v>0.765950455</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.6251664720000001</v>
+        <v>-0.519618289</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.4203163190000001</v>
+        <v>-0.17593093</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.07668655</v>
+        <v>1.07663404</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4258781200000001</v>
+        <v>0.86323255</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.5640218670000001</v>
+        <v>-0.06948731839999998</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -2915,41 +2911,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.23421681</v>
+        <v>0.557075167</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.18033755</v>
+        <v>-1.18582664</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.06631932739999999</v>
+        <v>-1.94006302</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.925108991</v>
+        <v>-0.3397422600000001</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.05607901</v>
+        <v>-0.0666368043</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.990065046</v>
+        <v>-0.4506806970000001</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.7347550250000001</v>
+        <v>-1.18187858</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.198110218</v>
+        <v>-0.6339970160000002</v>
       </c>
       <c r="J58" t="n">
-        <v>0.182445376</v>
+        <v>0.5650098390000001</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2957,41 +2953,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.413192638</v>
+        <v>-0.3974625830000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5291200160000001</v>
+        <v>-0.7827710460000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.825816127</v>
+        <v>0.3646725960000001</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.925108991</v>
+        <v>-0.5999052520000001</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.3866831770000001</v>
+        <v>-0.544819519</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.198719471</v>
+        <v>-0.202190013</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.575242322</v>
+        <v>-0.3139975720000001</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.191322419</v>
+        <v>0.209524657</v>
       </c>
       <c r="J59" t="n">
-        <v>0.257092101</v>
+        <v>1.18084531</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2999,31 +2995,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.200940105</v>
+        <v>0.883442853</v>
       </c>
       <c r="C60" t="n">
-        <v>0.260939057</v>
+        <v>0.909435117</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.7065279689999999</v>
+        <v>-1.41356377</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.404783008</v>
+        <v>-0.0145385201</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.159481797</v>
+        <v>0.39850788</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.393110994</v>
+        <v>1.34630413</v>
       </c>
       <c r="H60" t="n">
-        <v>0.983035503</v>
+        <v>3.03072907</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.6228063190000001</v>
+        <v>-0.954002011</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.8439470840000001</v>
+        <v>-0.5173676649999999</v>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
@@ -3041,35 +3037,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.423720628</v>
+        <v>-0.200940105</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4397263630000001</v>
+        <v>0.260939057</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.6469541240000001</v>
+        <v>-0.7065279689999999</v>
       </c>
       <c r="E61" t="n">
-        <v>1.67652093</v>
+        <v>-0.404783008</v>
       </c>
       <c r="F61" t="n">
-        <v>0.920457719</v>
+        <v>-0.159481797</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.8322565989999999</v>
+        <v>-0.393110994</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9227996970000002</v>
+        <v>0.983035503</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.6263530970000001</v>
+        <v>-0.6228063190000001</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08913697090000001</v>
+        <v>-0.8439470840000001</v>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -3083,41 +3079,43 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.88557752</v>
+        <v>-1.24672043</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.92194547</v>
+        <v>-0.5906531079999999</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.23677145</v>
+        <v>-1.00792375</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5708282110000001</v>
+        <v>0.05050222780000001</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.04298354</v>
+        <v>0.352541501</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3373968020000001</v>
+        <v>-0.4273262870000001</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.74529838</v>
+        <v>-1.03771789</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.6026875260000001</v>
+        <v>-0.07409528790000003</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.0228331157</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>0.7422958090000001</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3125,35 +3123,35 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.61338348</v>
+        <v>1.06943734</v>
       </c>
       <c r="C63" t="n">
-        <v>0.260939057</v>
+        <v>0.214673921</v>
       </c>
       <c r="D63" t="n">
-        <v>0.109495192</v>
+        <v>-0.3136122780000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.505787463</v>
+        <v>-0.0145385201</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3383594280000001</v>
+        <v>0.04718848429999999</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.309071346</v>
+        <v>-0.34977747</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.3968644250000001</v>
+        <v>-0.6905832849999999</v>
       </c>
       <c r="I63" t="n">
-        <v>0.07774350530000002</v>
+        <v>-0.3520893090000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.425047231</v>
+        <v>0.257092101</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
@@ -3167,35 +3165,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4833792370000001</v>
+        <v>-0.169356135</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7008499270000002</v>
+        <v>0.07117358420000001</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.293694002</v>
+        <v>-0.5186818390000001</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.18527198</v>
+        <v>0.115542976</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7704417160000001</v>
+        <v>-0.7572203430000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3456182130000001</v>
+        <v>-0.249657056</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.9285196530000001</v>
+        <v>-0.6854950770000001</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.252045706</v>
+        <v>-0.2195131900000001</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.09747984009999999</v>
+        <v>0.7889500120000001</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3209,41 +3207,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.70644266</v>
+        <v>-0.720320939</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.6141777530000001</v>
+        <v>-1.24777487</v>
       </c>
       <c r="D65" t="n">
-        <v>0.83591339</v>
+        <v>-0.101527236</v>
       </c>
       <c r="E65" t="n">
-        <v>0.440746716</v>
+        <v>0.8309912030000002</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.96072288</v>
+        <v>-1.50119375</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.188240646</v>
+        <v>0.131735835</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.15087862</v>
+        <v>-1.45817443</v>
       </c>
       <c r="I65" t="n">
-        <v>1.07261476</v>
+        <v>1.31428488</v>
       </c>
       <c r="J65" t="n">
-        <v>-1.375805</v>
+        <v>3.20563771</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3251,31 +3249,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3834252630000001</v>
+        <v>0.6026964560000002</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.26973121</v>
+        <v>-0.132706676</v>
       </c>
       <c r="D66" t="n">
-        <v>0.121041336</v>
+        <v>-0.990801366</v>
       </c>
       <c r="E66" t="n">
-        <v>1.28627644</v>
+        <v>0.440746716</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.356775949</v>
+        <v>-0.7429060430000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.291236648</v>
+        <v>-0.491780111</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.6657122240000001</v>
+        <v>-0.4158200140000001</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.259445019</v>
+        <v>-0.613022104</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.256104129</v>
+        <v>0.499693955</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
@@ -3293,31 +3291,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25894116</v>
+        <v>-0.127244176</v>
       </c>
       <c r="C67" t="n">
-        <v>1.01451187</v>
+        <v>0.6326284550000002</v>
       </c>
       <c r="D67" t="n">
-        <v>1.98714333</v>
+        <v>2.2904884</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.469823756</v>
+        <v>1.80660242</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6639292960000003</v>
+        <v>0.07518027280000002</v>
       </c>
       <c r="G67" t="n">
-        <v>2.0997129</v>
+        <v>-0.990065046</v>
       </c>
       <c r="H67" t="n">
-        <v>0.576530947</v>
+        <v>1.2052367</v>
       </c>
       <c r="I67" t="n">
-        <v>2.73507526</v>
+        <v>1.68785846</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.44272094</v>
+        <v>-1.20784987</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
@@ -3335,31 +3333,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6202431060000001</v>
+        <v>-1.14845919</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.16720949</v>
+        <v>0.144099985</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.8216013560000002</v>
+        <v>0.0865493247</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.7950274960000001</v>
+        <v>-0.144620016</v>
       </c>
       <c r="F68" t="n">
-        <v>0.575037445</v>
+        <v>-0.205644387</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0558568362</v>
+        <v>-0.2559698</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.3897628570000001</v>
+        <v>0.00938893794</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.3840714630000001</v>
+        <v>0.245970859</v>
       </c>
       <c r="J68" t="n">
-        <v>1.51675557</v>
+        <v>0.453039752</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
@@ -3377,35 +3375,35 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.720320939</v>
+        <v>0.23421681</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.24777487</v>
+        <v>-1.18033755</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.101527236</v>
+        <v>-0.06631932739999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8309912030000002</v>
+        <v>-0.925108991</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.50119375</v>
+        <v>-2.05607901</v>
       </c>
       <c r="G69" t="n">
-        <v>0.131735835</v>
+        <v>-0.990065046</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.45817443</v>
+        <v>-0.7347550250000001</v>
       </c>
       <c r="I69" t="n">
-        <v>1.31428488</v>
+        <v>-0.198110218</v>
       </c>
       <c r="J69" t="n">
-        <v>3.20563771</v>
+        <v>0.182445376</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -3419,41 +3417,43 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.923862077</v>
+        <v>-0.014945617</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.5232157909999999</v>
+        <v>0.9345280720000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.730266322</v>
+        <v>0.457703866</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.534864504</v>
+        <v>0.115542976</v>
       </c>
       <c r="F70" t="n">
-        <v>1.82597743</v>
+        <v>1.48050069</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.222913948</v>
+        <v>-0.3560039930000001</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.8426810780000001</v>
+        <v>-0.121853329</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.03917786910000001</v>
+        <v>-0.3376575910000001</v>
       </c>
       <c r="J70" t="n">
-        <v>0.723634128</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>0.210437898</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3461,41 +3461,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.6887369689999999</v>
+        <v>-0.436065212</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.3097231</v>
+        <v>-1.35206747</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09203805499999999</v>
+        <v>-1.18468264</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.81129068</v>
+        <v>-1.90072021</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7117433070000001</v>
+        <v>-0.579063739</v>
       </c>
       <c r="G71" t="n">
-        <v>0.713163046</v>
+        <v>-0.509813052</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.4175686490000001</v>
+        <v>-1.22655584</v>
       </c>
       <c r="I71" t="n">
-        <v>1.26946094</v>
+        <v>-0.6153458550000002</v>
       </c>
       <c r="J71" t="n">
-        <v>-1.11454146</v>
+        <v>-0.08814899949999998</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3503,31 +3503,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.00642844</v>
+        <v>0.202632841</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.556150294</v>
+        <v>-0.224452794</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.281768211</v>
+        <v>-0.7476517360000002</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.44543498</v>
+        <v>0.7009097070000001</v>
       </c>
       <c r="F72" t="n">
-        <v>2.20609925</v>
+        <v>3.31533507</v>
       </c>
       <c r="G72" t="n">
-        <v>0.211570693</v>
+        <v>-0.3051807980000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0.11162881</v>
+        <v>0.03184553529999999</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.138793412</v>
+        <v>-0.3676217510000001</v>
       </c>
       <c r="J72" t="n">
-        <v>0.546348158</v>
+        <v>0.6303257230000001</v>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
@@ -3545,31 +3545,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.202632841</v>
+        <v>0.560584497</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.224452794</v>
+        <v>0.9306072980000001</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.7476517360000002</v>
+        <v>0.77085671</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7009097070000001</v>
+        <v>0.05050222780000001</v>
       </c>
       <c r="F73" t="n">
-        <v>3.31533507</v>
+        <v>1.92550019</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3051807980000001</v>
+        <v>-0.275965286</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03184553529999999</v>
+        <v>-0.2677531539999999</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.3676217510000001</v>
+        <v>-0.350071314</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6303257230000001</v>
+        <v>-0.470713462</v>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
@@ -3587,41 +3587,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.507944547</v>
+        <v>-1.78013859</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.411081647</v>
+        <v>-0.3350186270000001</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.495335782</v>
+        <v>-0.3376601900000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3757059680000001</v>
+        <v>-0.404783008</v>
       </c>
       <c r="F74" t="n">
-        <v>1.1937933</v>
+        <v>-0.6589338830000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3865566730000001</v>
+        <v>0.8735758700000001</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.724501974</v>
+        <v>0.174667302</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.07048735839999999</v>
+        <v>-0.3226755110000001</v>
       </c>
       <c r="J74" t="n">
-        <v>1.36746213</v>
+        <v>3.29894612</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3629,31 +3629,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.7519049090000001</v>
+        <v>0.4833792370000001</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.3499175690000001</v>
+        <v>0.7008499270000002</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0912100652</v>
+        <v>-0.293694002</v>
       </c>
       <c r="E75" t="n">
-        <v>0.765950455</v>
+        <v>-1.18527198</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.519618289</v>
+        <v>-0.7704417160000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.17593093</v>
+        <v>-0.3456182130000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1.07663404</v>
+        <v>-0.9285196530000001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.86323255</v>
+        <v>-0.252045706</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.06948731839999998</v>
+        <v>-0.09747984009999999</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
@@ -3671,41 +3671,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.85552725</v>
+        <v>2.00642844</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.919998144</v>
+        <v>-0.556150294</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.7600644209999999</v>
+        <v>-0.281768211</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.83567946</v>
+        <v>-1.44543498</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09649582400000001</v>
+        <v>2.20609925</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.408194646</v>
+        <v>0.211570693</v>
       </c>
       <c r="H76" t="n">
-        <v>0.135492437</v>
+        <v>0.11162881</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.913214063</v>
+        <v>-0.138793412</v>
       </c>
       <c r="J76" t="n">
-        <v>0.92891262</v>
+        <v>0.546348158</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3713,41 +3713,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27281944</v>
+        <v>-0.214977425</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275053845</v>
+        <v>-0.118591889</v>
       </c>
       <c r="D77" t="n">
-        <v>0.278702708</v>
+        <v>0.8923623219999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.440746716</v>
+        <v>0.505787463</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.01708879</v>
+        <v>-0.182449785</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.267983437</v>
+        <v>-0.351707674</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.598811404</v>
+        <v>0.876332971</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.07489025540000002</v>
+        <v>-0.5260648889999999</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.480044302</v>
+        <v>0.4623705930000001</v>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3755,31 +3755,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.562401091</v>
+        <v>-0.404481243</v>
       </c>
       <c r="C78" t="n">
-        <v>0.228004554</v>
+        <v>0.220163005</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.2913796730000001</v>
+        <v>-0.531442457</v>
       </c>
       <c r="E78" t="n">
-        <v>1.48139868</v>
+        <v>-0.0145385201</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.03615096</v>
+        <v>-0.5722087170000001</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.990065046</v>
+        <v>-0.460731175</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.8269687570000001</v>
+        <v>-0.22803194</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.6051335799999999</v>
+        <v>-0.5750471180000001</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.5546910270000002</v>
+        <v>0.5743406790000001</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
@@ -3797,41 +3797,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.78900902</v>
+        <v>0.441267278</v>
       </c>
       <c r="C79" t="n">
-        <v>0.363663343</v>
+        <v>0.5314724799999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.117942434</v>
+        <v>1.13379998</v>
       </c>
       <c r="E79" t="n">
-        <v>0.896031951</v>
+        <v>-0.729986748</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.3699706760000001</v>
+        <v>-0.119915781</v>
       </c>
       <c r="G79" t="n">
-        <v>0.140997861</v>
+        <v>0.263057386</v>
       </c>
       <c r="H79" t="n">
-        <v>3.06865594</v>
+        <v>-0.112164004</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.7616198760000001</v>
+        <v>0.4803639700000001</v>
       </c>
       <c r="J79" t="n">
-        <v>-1.02123305</v>
+        <v>0.6209948820000002</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -3839,41 +3839,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.26777641</v>
+        <v>-0.6887369689999999</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.95900332</v>
+        <v>-1.3097231</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.544431338</v>
+        <v>0.09203805499999999</v>
       </c>
       <c r="E80" t="n">
-        <v>0.180583724</v>
+        <v>-2.81129068</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.320247841</v>
+        <v>-0.7117433070000001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7318826700000001</v>
+        <v>0.713163046</v>
       </c>
       <c r="H80" t="n">
-        <v>-1.47309134</v>
+        <v>-0.4175686490000001</v>
       </c>
       <c r="I80" t="n">
-        <v>3.21523564</v>
+        <v>1.26946094</v>
       </c>
       <c r="J80" t="n">
-        <v>3.62552554</v>
+        <v>-1.11454146</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -3881,41 +3881,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.58712544</v>
+        <v>0.2798381</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7549566120000002</v>
+        <v>0.152725688</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.260296206</v>
+        <v>-0.3038727140000001</v>
       </c>
       <c r="E81" t="n">
-        <v>1.48139868</v>
+        <v>-0.3397422600000001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0467290907</v>
+        <v>-0.391579232</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4034747370000001</v>
+        <v>-0.4046767800000001</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.111932843</v>
+        <v>0.468514332</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.2840278600000001</v>
+        <v>-0.413057201</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.358743375</v>
+        <v>0.05181360870000002</v>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3923,35 +3923,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.84681586</v>
+        <v>-2.88557752</v>
       </c>
       <c r="C82" t="n">
-        <v>-3.14386129</v>
+        <v>-2.92194547</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.10759278</v>
+        <v>-2.23677145</v>
       </c>
       <c r="E82" t="n">
-        <v>4.0830286</v>
+        <v>0.5708282110000001</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.873875</v>
+        <v>-1.04298354</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.392435482</v>
+        <v>-0.3373968020000001</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.60186409</v>
+        <v>-1.74529838</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.10767534</v>
+        <v>-0.6026875260000001</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.797292881</v>
+        <v>-0.0228331157</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -3965,41 +3965,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.883442853</v>
+        <v>-0.3974625830000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.909435117</v>
+        <v>0.271917225</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.41356377</v>
+        <v>0.490879051</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.0145385201</v>
+        <v>0.3757059680000001</v>
       </c>
       <c r="F83" t="n">
-        <v>0.39850788</v>
+        <v>1.76491278</v>
       </c>
       <c r="G83" t="n">
-        <v>1.34630413</v>
+        <v>-0.4370084400000001</v>
       </c>
       <c r="H83" t="n">
-        <v>3.03072907</v>
+        <v>-0.2619086270000001</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.954002011</v>
+        <v>-0.7725659669999999</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.5173676649999999</v>
+        <v>0.6116640420000001</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4093,41 +4093,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.78013859</v>
+        <v>0.413192638</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.3350186270000001</v>
+        <v>0.5291200160000001</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.3376601900000001</v>
+        <v>0.825816127</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.404783008</v>
+        <v>-0.925108991</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6589338830000001</v>
+        <v>-0.3866831770000001</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8735758700000001</v>
+        <v>-0.198719471</v>
       </c>
       <c r="H86" t="n">
-        <v>0.174667302</v>
+        <v>-0.575242322</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.3226755110000001</v>
+        <v>-0.191322419</v>
       </c>
       <c r="J86" t="n">
-        <v>3.29894612</v>
+        <v>0.257092101</v>
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
